--- a/medicine/Enfance/Yes_Sir,_That's_My_Baby/Yes_Sir,_That's_My_Baby.xlsx
+++ b/medicine/Enfance/Yes_Sir,_That's_My_Baby/Yes_Sir,_That's_My_Baby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes_Sir,_That%27s_My_Baby</t>
+          <t>Yes_Sir,_That's_My_Baby</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes Sir, That's My Baby (Oui Monsieur, C'est Mon Bébé, en anglais) est un standard de jazz et de charleston américain, composée en 1925 par Walter Donaldson, avec des paroles de Gus Kahn[1],[2],[3], composée avec succès pour le célèbre chanteur de jazz américain de l'époque Eddie Cantor[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes Sir, That's My Baby (Oui Monsieur, C'est Mon Bébé, en anglais) est un standard de jazz et de charleston américain, composée en 1925 par Walter Donaldson, avec des paroles de Gus Kahn composée avec succès pour le célèbre chanteur de jazz américain de l'époque Eddie Cantor.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yes_Sir,_That%27s_My_Baby</t>
+          <t>Yes_Sir,_That's_My_Baby</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chanson très populaire de charleston de l'Ère du Jazz des années 1920 aux États-Unis, est inspirée du jazz Nouvelle-Orléans-dixieland, sur le thème de la paternité et de la reconnaissance filiale : « Oui monsieur, c'est mon bébé maintenant, Oui, nous avons décidé, Non madame, on ne va pas le cacher, Quand nous marcherons vers le prêtre, je dirai, Oui monsieur, c'est mon bébé... ». Elle est reprise avec succès par de nombreux interprètes dont Nat King Cole, Count Basie, Frank Sinatra, Bing Crosby..., et pour de nombreuses musique de film de cinéma...
 La chanson a été adaptée en 1926, en français, par Paul Briquet pour Maurice Chevalier sous le titre « Chacun son Truc ».
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yes_Sir,_That%27s_My_Baby</t>
+          <t>Yes_Sir,_That's_My_Baby</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1942 : Broadway, de William A. Seiter
 1944 : Étrange histoire, d'Alexander Hall, avec Cary Grant
